--- a/training_process_data/totalloss.xlsx
+++ b/training_process_data/totalloss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1910717496648431</v>
+        <v>11.28908298909664</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.804502435028553</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.89990097284317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.937672536820173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.393004447221756</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.068834675475955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.8468469008803368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.705970348790288</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.6123198587447405</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.5393874235451221</v>
       </c>
     </row>
   </sheetData>
